--- a/loaded_influencer_data/maggies_room/maggies_room_video.xlsx
+++ b/loaded_influencer_data/maggies_room/maggies_room_video.xlsx
@@ -506,16 +506,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7460236329696234782</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="C2" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -528,16 +528,16 @@
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>9.107806691449815</v>
+        <v>9.689213893967093</v>
       </c>
       <c r="I2" t="n">
-        <v>8.921933085501859</v>
+        <v>9.506398537477148</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1858736059479554</v>
+        <v>0.1828153564899452</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -552,16 +552,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7456259916437769503</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>719</v>
+        <v>732</v>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -572,16 +572,12 @@
       <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>I literally use these for EVERYTHING 😍 #jlab #headphones #noisecancellingheadphones #jbudsluxanc @JLab</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>2.503477051460361</v>
+        <v>2.595628415300546</v>
       </c>
       <c r="I3" t="n">
-        <v>2.503477051460361</v>
+        <v>2.595628415300546</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -590,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1390820584144645</v>
+        <v>0.1366120218579235</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -602,19 +598,19 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7441821365117652255</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -624,23 +620,23 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>You can find the exact cleansing system I use by clicking the orange cart ☺️ #skin1004 #doublecleansing #skincare</t>
+          <t>주황색 카트를 클릭하면 내가 사용하는 정확한 클렌징 시스템을 찾을 수 있습니다. ☺️#skin1004 #doublecleansing</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4.925053533190578</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="I4" t="n">
-        <v>4.496788008565311</v>
+        <v>4.700854700854701</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4282655246252677</v>
+        <v>0.8547008547008548</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2141327623126338</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -652,7 +648,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7437026962389896479</t>
         </is>
@@ -674,7 +670,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lattafa Yara Candy is such a beautiful scent #lattafayaracandy #lattafaperfume #tiktokshopblackfriday</t>
+          <t>Lattafa Yara Candy는 정말 아름다운 향입니다#lattafayaracandy #lattafaperfume #tiktokshopblackfriday</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -702,7 +698,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7436298117705747742</t>
         </is>
@@ -724,7 +720,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>It literally feels like I got a full body massage after 😩 #lifeprousa #vibrationplate #trimlitevibrationplate</t>
+          <t>말 그대로 전신 마사지를 받은 것 같아요 😩#lifeprousa #vibrationplate #trimlitevibrationplate</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -752,7 +748,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7434809810660445470</t>
         </is>
@@ -774,7 +770,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>💕WNP’s massaging eye cream is quickly becoming a staple in skincare💕 #wnpskincare #antiaging #eyecream</t>
+          <t>💕WNP의 마사지 아이크림이 빠르게 스킨케어의 필수품이 되고 있다💕#wnpskincare #antiaging #eyecream</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -802,7 +798,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7428500072087751966</t>
         </is>
@@ -814,7 +810,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -828,7 +824,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3.211991434689507</v>
+        <v>3.426124197002141</v>
       </c>
       <c r="I8" t="n">
         <v>2.569593147751606</v>
@@ -837,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6423982869379015</v>
+        <v>0.8565310492505354</v>
       </c>
       <c r="L8" t="n">
         <v>0.8565310492505354</v>
@@ -852,13 +848,13 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7427944644136193310</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1046</v>
+        <v>1056</v>
       </c>
       <c r="C9" t="n">
         <v>18</v>
@@ -874,23 +870,23 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>I’m wearing # 15 in Clay Brown 😘 #lipkit #lipstick #fallmakeup #brownlipstick #tiktokshopfinds #falldealsforyou</t>
+          <t>나는 클레이 브라운에서 #15를 입고 있다 😘#lipkit #lipstick #fallmakeup #brownlipstick #tiktokshopfinds</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.816443594646272</v>
+        <v>1.799242424242424</v>
       </c>
       <c r="I9" t="n">
-        <v>1.720841300191205</v>
+        <v>1.704545454545454</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.09560229445506692</v>
+        <v>0.0946969696969697</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1912045889101338</v>
+        <v>0.1893939393939394</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -902,13 +898,13 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7426764004212690206</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C10" t="n">
         <v>24</v>
@@ -924,23 +920,23 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>I’m wearing # 15 in Clay Brown 😘 #lipkit #lipstick #fallmakeup #brownlipstick #tiktokshopfinds #falldealsforyou</t>
+          <t>🪩 새로운 컴포트 핏🪩 참고로 저는 XL을 입고 있는 4"11"입니다.#falldealsforyou #loungewear #sweater</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4.88599348534202</v>
+        <v>4.878048780487805</v>
       </c>
       <c r="I10" t="n">
-        <v>3.908794788273615</v>
+        <v>3.902439024390244</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9771986970684038</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6514657980456027</v>
+        <v>0.6504065040650406</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -952,7 +948,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7424737335612378399</t>
         </is>
@@ -1002,7 +998,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7423104050943577375</t>
         </is>
@@ -1052,7 +1048,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7421378090858745119</t>
         </is>
@@ -1102,7 +1098,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7420916373313867039</t>
         </is>
@@ -1152,7 +1148,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7419070755549220127</t>
         </is>
@@ -1202,7 +1198,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7418219302890802462</t>
         </is>
@@ -1248,7 +1244,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7416453220073049375</t>
         </is>
@@ -1298,7 +1294,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7416106748190231839</t>
         </is>
@@ -1348,7 +1344,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7415725718727839007</t>
         </is>
@@ -1398,7 +1394,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7415435401982217502</t>
         </is>
@@ -1448,7 +1444,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7414059133860695326</t>
         </is>
@@ -1498,7 +1494,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7413910841323425054</t>
         </is>
@@ -1548,7 +1544,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7413502508758273310</t>
         </is>
@@ -1598,7 +1594,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7413184296640400670</t>
         </is>
@@ -1648,7 +1644,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7412738913514687774</t>
         </is>
@@ -1698,7 +1694,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7406792369623928095</t>
         </is>
@@ -1748,7 +1744,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7406092378693487903</t>
         </is>
@@ -1798,7 +1794,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7405342188151917855</t>
         </is>
@@ -1848,7 +1844,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7403785288096550175</t>
         </is>
@@ -1898,7 +1894,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7403563599093927198</t>
         </is>
@@ -1949,7 +1945,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7402858162346380575</t>
         </is>
@@ -2000,7 +1996,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7402445808882240798</t>
         </is>
@@ -2050,7 +2046,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7402339822196526367</t>
         </is>
@@ -2100,7 +2096,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7401646692245835038</t>
         </is>
@@ -2150,7 +2146,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7401397768721386782</t>
         </is>
@@ -2200,7 +2196,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7401230253080841502</t>
         </is>
@@ -2250,7 +2246,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7400419125979368735</t>
         </is>
@@ -2300,7 +2296,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7399410986303720735</t>
         </is>
@@ -2350,7 +2346,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7399275687636421918</t>
         </is>
@@ -2400,7 +2396,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7396226149963009311</t>
         </is>
@@ -2451,7 +2447,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7396041790354214174</t>
         </is>
@@ -2502,7 +2498,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7395820224290770206</t>
         </is>
@@ -2552,7 +2548,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7395746074863865118</t>
         </is>
@@ -2602,7 +2598,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7395699531465149726</t>
         </is>
@@ -2652,7 +2648,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7395634352362736926</t>
         </is>
@@ -2702,7 +2698,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7395459184818457887</t>
         </is>
@@ -2752,7 +2748,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7395230624438603039</t>
         </is>
@@ -2802,7 +2798,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7395118455055322399</t>
         </is>
@@ -2852,7 +2848,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maggies_room/video/7394567861227752735</t>
         </is>
